--- a/resources/experiment 2/metrics/R2/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Macroalbuminuria (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8282516379989272</v>
+        <v>0.828251637998927</v>
       </c>
       <c r="C2" t="n">
         <v>0.8282516379989272</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.981780549726038</v>
+        <v>0.9990288083800415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9817805421751645</v>
+        <v>0.998972286036827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9817805421751645</v>
+        <v>0.9783891396668984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995169217390766</v>
+        <v>0.9984841755306016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995169133508574</v>
+        <v>0.9982344228564468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995169133508574</v>
+        <v>0.9914785285293156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9455509859889214</v>
+        <v>0.9996088301902594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9455509859889214</v>
+        <v>0.9995230757379915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9455509859889214</v>
+        <v>0.9992759479253376</v>
       </c>
     </row>
   </sheetData>
